--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.1_TC1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5940" yWindow="-14730" windowWidth="21600" windowHeight="11325" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3060" yWindow="-14010" windowWidth="25380" windowHeight="13410" tabRatio="732" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="QuantitativeMetrics" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,14 +11,14 @@
     <sheet name="_Values" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191028" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -45,6 +45,13 @@
       <b val="1"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
@@ -88,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -104,6 +111,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -452,7 +462,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -554,11 +564,7 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
-        <is>
-          <t>Test not passing correctly as the baseline</t>
-        </is>
-      </c>
+      <c r="C7" s="9" t="n"/>
       <c r="D7" s="7" t="inlineStr">
         <is>
           <t>If the test pass or fails compared to baseline tests (some result or not)</t>
@@ -620,11 +626,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3326221666148217</v>
+        <v>0.3040507380433932</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.33262216661482175, 'ngram_match_score': 0.10122066127141109, 'weighted_ngram_match_score': 0.1314325073523782, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.3619047619047619}</t>
+          <t>{'codebleu': 0.3040507380433932, 'ngram_match_score': 0.10122066127141109, 'weighted_ngram_match_score': 0.1314325073523782, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.24761904761904763}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
@@ -651,6 +657,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC3.1_TC1.xlsx
@@ -626,11 +626,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3040507380433932</v>
+        <v>0.3421459761386313</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.3040507380433932, 'ngram_match_score': 0.10122066127141109, 'weighted_ngram_match_score': 0.1314325073523782, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.24761904761904763}</t>
+          <t>{'codebleu': 0.3421459761386313, 'ngram_match_score': 0.10122066127141109, 'weighted_ngram_match_score': 0.1314325073523782, 'syntax_match_score': 0.7359307359307359, 'dataflow_match_score': 0.4}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
